--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1343551.151886114</v>
+        <v>1447730.786337186</v>
       </c>
     </row>
     <row r="7">
@@ -662,10 +664,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>294.8980762824338</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>11.09070292403204</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -719,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -823,19 +825,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>144.9792037490805</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>120.4263234899697</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>91.61745183476896</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>87.56115536271761</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>22.61209830134734</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>139.8420725436384</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>328.4896310741212</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>347.4173510049865</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1309,7 +1311,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>200.1973972070953</v>
       </c>
       <c r="U10" t="n">
-        <v>151.7056199891041</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1376,13 +1378,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187896</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1543,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>47.08900005058094</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000799</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576191</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>139.188673966789</v>
+        <v>172.0260335000799</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2008,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>26.05480806223719</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,13 +2061,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>79.9081607862897</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2096,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2251,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>26.70391688093298</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,16 +2298,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>185.4048731212358</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2366,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>174.9740119554621</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>147.6895341487328</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>27.68426743653215</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2855,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>99.8602399996534</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>95.81917536083702</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3038,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>100.5858322992714</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3247,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>114.2935157990533</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3281,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>39.1765876308691</v>
+        <v>100.5858322992699</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3481,13 +3483,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>51.3656974031032</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>227.9781415148429</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3724,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3907,13 +3909,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>107.4021082756248</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3955,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>117.2645540643931</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4147,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>94.30373791808189</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>40.96105405076477</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,13 +4191,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1986.901740067215</v>
+        <v>2257.256030805452</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1888.29351386504</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1530.02781525829</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528559</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389512</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839476</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4352,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3314.403091382875</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>3060.872614656711</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V2" t="n">
-        <v>2729.809727313141</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W2" t="n">
-        <v>2377.041072043026</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X2" t="n">
-        <v>2377.041072043026</v>
+        <v>2257.256030805452</v>
       </c>
       <c r="Y2" t="n">
-        <v>1986.901740067215</v>
+        <v>2257.256030805452</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4440,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2489.924953962485</v>
+        <v>1930.093399075246</v>
       </c>
       <c r="C4" t="n">
-        <v>2320.988771034578</v>
+        <v>1761.15721614734</v>
       </c>
       <c r="D4" t="n">
-        <v>2170.872131622242</v>
+        <v>1611.040576735004</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.959038039849</v>
+        <v>1611.040576735004</v>
       </c>
       <c r="F4" t="n">
-        <v>1876.069090541939</v>
+        <v>1611.040576735004</v>
       </c>
       <c r="G4" t="n">
-        <v>1708.366253916658</v>
+        <v>1611.040576735004</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134516</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J4" t="n">
         <v>1509.946022399797</v>
@@ -4492,46 +4494,46 @@
         <v>1713.933205348673</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102582</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456655</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366698</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S4" t="n">
-        <v>3235.775364366698</v>
+        <v>3179.162181458585</v>
       </c>
       <c r="T4" t="n">
-        <v>3014.008748936224</v>
+        <v>2957.395566028111</v>
       </c>
       <c r="U4" t="n">
-        <v>2892.365997936255</v>
+        <v>2668.292699153754</v>
       </c>
       <c r="V4" t="n">
-        <v>2892.365997936255</v>
+        <v>2668.292699153754</v>
       </c>
       <c r="W4" t="n">
-        <v>2892.365997936255</v>
+        <v>2378.875529116794</v>
       </c>
       <c r="X4" t="n">
-        <v>2892.365997936255</v>
+        <v>2150.885978218776</v>
       </c>
       <c r="Y4" t="n">
-        <v>2671.573418792725</v>
+        <v>1930.093399075246</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1712.341567565137</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="C5" t="n">
-        <v>1343.379050624726</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D5" t="n">
-        <v>985.1133520179753</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001391</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>3126.869541658774</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136265</v>
+        <v>2795.806654315204</v>
       </c>
       <c r="W5" t="n">
-        <v>2862.546497866151</v>
+        <v>2443.037999045089</v>
       </c>
       <c r="X5" t="n">
-        <v>2489.080739605071</v>
+        <v>2069.572240784009</v>
       </c>
       <c r="Y5" t="n">
-        <v>2098.941407629259</v>
+        <v>1679.432908808198</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>630.9252167254034</v>
+        <v>847.3980557622425</v>
       </c>
       <c r="C7" t="n">
-        <v>630.9252167254034</v>
+        <v>678.4618728343356</v>
       </c>
       <c r="D7" t="n">
-        <v>480.8085773130676</v>
+        <v>528.3452334219999</v>
       </c>
       <c r="E7" t="n">
-        <v>332.8954837306745</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959802</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4756,19 +4758,19 @@
         <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.675339798491</v>
+        <v>1504.523587941899</v>
       </c>
       <c r="V7" t="n">
-        <v>1101.990851592604</v>
+        <v>1249.839099736012</v>
       </c>
       <c r="W7" t="n">
-        <v>812.5736815556431</v>
+        <v>1249.839099736012</v>
       </c>
       <c r="X7" t="n">
-        <v>812.5736815556431</v>
+        <v>1249.839099736012</v>
       </c>
       <c r="Y7" t="n">
-        <v>812.5736815556431</v>
+        <v>1029.046520592482</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1899.13013587303</v>
+        <v>1601.11348746897</v>
       </c>
       <c r="C8" t="n">
-        <v>1530.167618932618</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D8" t="n">
-        <v>1171.901920325867</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276231</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>375.1277629380156</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4820,34 +4822,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265599</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W8" t="n">
-        <v>2662.735226109921</v>
+        <v>2325.505862906804</v>
       </c>
       <c r="X8" t="n">
-        <v>2289.269467848841</v>
+        <v>1952.040104645724</v>
       </c>
       <c r="Y8" t="n">
-        <v>1899.13013587303</v>
+        <v>1601.11348746897</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4874,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>844.171363847817</v>
+        <v>943.7005868594143</v>
       </c>
       <c r="C10" t="n">
-        <v>675.2351809199101</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1735.608663915319</v>
+        <v>1635.244497707541</v>
       </c>
       <c r="U10" t="n">
-        <v>1582.370663926325</v>
+        <v>1346.141630833184</v>
       </c>
       <c r="V10" t="n">
-        <v>1582.370663926325</v>
+        <v>1346.141630833184</v>
       </c>
       <c r="W10" t="n">
-        <v>1292.953493889364</v>
+        <v>1346.141630833184</v>
       </c>
       <c r="X10" t="n">
-        <v>1064.963942991347</v>
+        <v>1346.141630833184</v>
       </c>
       <c r="Y10" t="n">
-        <v>844.171363847817</v>
+        <v>1125.349051689654</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551878</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611467</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004716</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406472</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168643</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398597</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492582</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474787</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466577</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123006</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852892</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591812</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866616</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>315.9123021921482</v>
+        <v>577.3880777468476</v>
       </c>
       <c r="L12" t="n">
-        <v>315.9123021921482</v>
+        <v>1072.713683962607</v>
       </c>
       <c r="M12" t="n">
-        <v>913.2907898187001</v>
+        <v>1670.092171589159</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373307</v>
+        <v>1670.092171589159</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>788.0191461778176</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2399.398437064522</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S13" t="n">
-        <v>2216.543602719426</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="T13" t="n">
-        <v>1996.942137742368</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="U13" t="n">
-        <v>1707.866911086565</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V13" t="n">
-        <v>1707.866911086565</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1418.449741049605</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>1190.460190151587</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>969.6676110080573</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,61 +5266,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398597</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492582</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="L15" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="M15" t="n">
-        <v>1026.887310050512</v>
+        <v>716.6687843969296</v>
       </c>
       <c r="N15" t="n">
-        <v>1654.485273605118</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5431,55 +5433,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="U16" t="n">
-        <v>1836.866460342035</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V16" t="n">
-        <v>1836.866460342035</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
-        <v>1547.449290305074</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>1319.459739407057</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>1098.667160263527</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5492,70 +5494,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>716.6687843969296</v>
       </c>
       <c r="N18" t="n">
-        <v>1859.536823237711</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876702</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597633</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>261.8464821474275</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>261.8464821474275</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474275</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>261.8464821474275</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>120.1346509896256</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V19" t="n">
-        <v>1871.240688199802</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W19" t="n">
-        <v>1581.823518162841</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>983.34034846144</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179099</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5734,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,16 +5764,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>2644.045655650152</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>3241.424143276704</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>3869.022106831311</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O21" t="n">
-        <v>4420.931837070598</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>4420.931837070598</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>734.6461798836018</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>565.7099969556949</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>415.5933575433592</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>267.680263960966</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>120.7903164630557</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>120.7903164630557</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.2946447138415</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5981,16 +5983,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
@@ -6002,25 +6004,25 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615665</v>
       </c>
       <c r="C24" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334538</v>
       </c>
       <c r="D24" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673287</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667831</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694716</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740624</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>2381.235169913445</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803938</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961526</v>
+        <v>3210.485548300424</v>
       </c>
       <c r="M24" t="n">
-        <v>1337.934786622704</v>
+        <v>3210.485548300424</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373306</v>
+        <v>3482.038612289356</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612593</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R24" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S24" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301205</v>
       </c>
       <c r="T24" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022979</v>
       </c>
       <c r="U24" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566164</v>
       </c>
       <c r="V24" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334421</v>
       </c>
       <c r="W24" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.99811360622</v>
       </c>
       <c r="X24" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400687</v>
       </c>
       <c r="Y24" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635733</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>809.0422355233313</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>640.1060525954244</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S25" t="n">
-        <v>2203.175953615025</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T25" t="n">
-        <v>1983.574488637966</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U25" t="n">
-        <v>1983.574488637966</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1728.890000432079</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1439.472830395119</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.483279497101</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>990.6907003535711</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6215,58 +6217,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>1540.888753373306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373306</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612593</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2341.919755080347</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1405.737459147272</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1177.747908249255</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>956.9553291057244</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6455,16 +6457,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,7 +6475,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,13 +6484,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6497,10 +6499,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
         <v>3094.515198591809</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>913.2907898186995</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M30" t="n">
-        <v>913.2907898186995</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373306</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612593</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3295.493064792045</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C31" t="n">
-        <v>3126.556881864138</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D31" t="n">
-        <v>2976.440242451802</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4288.376853076439</v>
+        <v>2100.27549966854</v>
       </c>
       <c r="U31" t="n">
-        <v>4288.376853076439</v>
+        <v>1811.200273012738</v>
       </c>
       <c r="V31" t="n">
-        <v>4033.692364870552</v>
+        <v>1556.515784806851</v>
       </c>
       <c r="W31" t="n">
-        <v>3744.275194833592</v>
+        <v>1267.09861476989</v>
       </c>
       <c r="X31" t="n">
-        <v>3516.285643935575</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y31" t="n">
-        <v>3295.493064792045</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="32">
@@ -6677,13 +6679,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6692,55 +6694,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385792</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913447</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>2715.159942084667</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L33" t="n">
-        <v>3210.485548300426</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M33" t="n">
-        <v>3807.864035926978</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N33" t="n">
-        <v>4138.923422159307</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O33" t="n">
-        <v>4690.833152398594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>4690.833152398594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398594</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3342.53722908186</v>
+        <v>2906.022356843753</v>
       </c>
       <c r="C34" t="n">
-        <v>3173.601046153953</v>
+        <v>2737.086173915846</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741617</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159224</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661314</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376194</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218392</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866305</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296629</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822168</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998108</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729143</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389151</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098136</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671695</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650996</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S34" t="n">
-        <v>4623.787448650996</v>
+        <v>4589.231301591249</v>
       </c>
       <c r="T34" t="n">
-        <v>4404.185983673938</v>
+        <v>4369.62983661419</v>
       </c>
       <c r="U34" t="n">
-        <v>4115.110757018136</v>
+        <v>4080.554609958388</v>
       </c>
       <c r="V34" t="n">
-        <v>3860.426268812249</v>
+        <v>3825.870121752501</v>
       </c>
       <c r="W34" t="n">
-        <v>3744.978273055629</v>
+        <v>3536.452951715541</v>
       </c>
       <c r="X34" t="n">
-        <v>3744.978273055629</v>
+        <v>3308.463400817523</v>
       </c>
       <c r="Y34" t="n">
-        <v>3524.185693912099</v>
+        <v>3087.670821673993</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615667</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.71794833454</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673289</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667833</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694718</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740626</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385792</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I36" t="n">
-        <v>2233.355914590559</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J36" t="n">
-        <v>2383.002557118214</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K36" t="n">
-        <v>2716.927329289435</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L36" t="n">
-        <v>3212.252935505193</v>
+        <v>3210.485548300425</v>
       </c>
       <c r="M36" t="n">
-        <v>3809.631423131745</v>
+        <v>3807.864035926977</v>
       </c>
       <c r="N36" t="n">
-        <v>4437.229386686352</v>
+        <v>4102.283767206194</v>
       </c>
       <c r="O36" t="n">
-        <v>4654.193497445482</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="P36" t="n">
-        <v>4654.193497445482</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="Q36" t="n">
-        <v>4654.193497445482</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301207</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.415660022981</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566166</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334423</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606222</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400689</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635735</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>996.5276398439761</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C37" t="n">
-        <v>827.5914569160692</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D37" t="n">
-        <v>677.4748175037334</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E37" t="n">
-        <v>529.5617239213403</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F37" t="n">
-        <v>382.6717764234299</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G37" t="n">
-        <v>215.4756771383099</v>
+        <v>277.5052172074016</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>1688.385853854707</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W37" t="n">
-        <v>1398.968683817746</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X37" t="n">
-        <v>1398.968683817746</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y37" t="n">
-        <v>1178.176104674216</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,37 +7186,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N39" t="n">
-        <v>1671.859558793925</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O39" t="n">
-        <v>2223.769289033212</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>800.6374272687974</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C40" t="n">
-        <v>631.7012443408905</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D40" t="n">
-        <v>631.7012443408905</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U40" t="n">
-        <v>1747.180129485415</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V40" t="n">
-        <v>1492.495641279528</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W40" t="n">
-        <v>1203.078471242567</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X40" t="n">
-        <v>1203.078471242567</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.2858920990371</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="41">
@@ -7397,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>869.6905094135296</v>
+        <v>3227.225672628157</v>
       </c>
       <c r="C43" t="n">
-        <v>700.7543264856228</v>
+        <v>3058.28948970025</v>
       </c>
       <c r="D43" t="n">
-        <v>550.637687073287</v>
+        <v>2908.172850287915</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>2760.259756705521</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>2613.369809207611</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>2446.173709922491</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487568</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>4401.757925742791</v>
       </c>
       <c r="V43" t="n">
-        <v>1789.538274322277</v>
+        <v>4147.073437536905</v>
       </c>
       <c r="W43" t="n">
-        <v>1500.121104285317</v>
+        <v>3857.656267499944</v>
       </c>
       <c r="X43" t="n">
-        <v>1272.131553387299</v>
+        <v>3629.666716601927</v>
       </c>
       <c r="Y43" t="n">
-        <v>1051.338974243769</v>
+        <v>3408.874137458397</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004712</v>
@@ -7634,22 +7636,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,13 +7660,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7679,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>2716.927329289434</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>2716.927329289434</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M45" t="n">
-        <v>3314.305816915985</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N45" t="n">
-        <v>3445.398957336243</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>3997.30868757553</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>4420.931837070598</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1057.95525898292</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C46" t="n">
-        <v>889.0190760550126</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D46" t="n">
-        <v>738.9024366426769</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E46" t="n">
-        <v>590.9893430602838</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="F46" t="n">
-        <v>444.0993955623734</v>
+        <v>189.0729639753273</v>
       </c>
       <c r="G46" t="n">
-        <v>276.9032962772533</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>135.1914651194514</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V46" t="n">
-        <v>1688.385853854707</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W46" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X46" t="n">
-        <v>1460.396302956689</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y46" t="n">
-        <v>1239.603723813159</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23416,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23431,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>19.28624665954074</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>114.1584408891642</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>146.9958004224551</v>
+        <v>114.1584408891642</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23896,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>55.21102825632832</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>145.8014946027475</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>113.5907959652909</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>66.73277020259221</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24412,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>6.052274046182504</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>138.4949402405113</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>258.8387309000589</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,13 +24846,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>46.57372264691577</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25081,16 +25083,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>80.44045370237323</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>172.2294825375376</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25318,16 +25320,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>101.1181252153548</v>
+        <v>39.70888054695402</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,16 +25554,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>58.20633287440128</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25795,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>32.89260457059909</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>134.8730892594349</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>71.22040037418695</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>40.30478226780075</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>921458.691881528</v>
+        <v>921458.6918815281</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>921458.6918815281</v>
+        <v>921458.691881528</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>921458.6918815279</v>
+        <v>921458.691881528</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>921458.691881528</v>
+        <v>921458.6918815279</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>921458.691881528</v>
+        <v>921458.6918815279</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>921458.6918815281</v>
+        <v>921458.691881528</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>921458.691881528</v>
+        <v>921458.6918815281</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>921458.6918815279</v>
+        <v>921458.6918815281</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>921458.691881528</v>
+        <v>921458.6918815281</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>921458.6918815281</v>
+        <v>921458.6918815279</v>
       </c>
     </row>
   </sheetData>
@@ -26311,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="D2" t="n">
         <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
+        <v>504466.6248062541</v>
+      </c>
+      <c r="F2" t="n">
+        <v>504466.6248062539</v>
+      </c>
+      <c r="G2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="H2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="I2" t="n">
         <v>504466.6248062536</v>
-      </c>
-      <c r="F2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="G2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="H2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="I2" t="n">
-        <v>504466.6248062538</v>
       </c>
       <c r="J2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="K2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="L2" t="n">
         <v>504466.6248062538</v>
@@ -26350,10 +26352,10 @@
         <v>504466.6248062538</v>
       </c>
       <c r="O2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>4.14093847211916e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073559</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551199</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820642</v>
+        <v>93403.78684820632</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820635</v>
+        <v>93403.78684820628</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820628</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26476,13 +26478,13 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26522,13 +26524,13 @@
         <v>-1016931.366972015</v>
       </c>
       <c r="C6" t="n">
-        <v>311813.3787555769</v>
+        <v>311813.3787555776</v>
       </c>
       <c r="D6" t="n">
-        <v>311813.3787555773</v>
+        <v>311813.3787555774</v>
       </c>
       <c r="E6" t="n">
-        <v>63714.88109813626</v>
+        <v>63714.88109813603</v>
       </c>
       <c r="F6" t="n">
         <v>389127.3429054916</v>
@@ -26537,28 +26539,28 @@
         <v>389127.3429054916</v>
       </c>
       <c r="H6" t="n">
-        <v>389127.3429054913</v>
+        <v>389127.3429054922</v>
       </c>
       <c r="I6" t="n">
-        <v>389127.3429054916</v>
+        <v>389127.3429054915</v>
       </c>
       <c r="J6" t="n">
-        <v>171596.1405082141</v>
+        <v>171596.140508214</v>
       </c>
       <c r="K6" t="n">
-        <v>389127.3429054916</v>
+        <v>389127.3429054915</v>
       </c>
       <c r="L6" t="n">
         <v>389127.3429054916</v>
       </c>
       <c r="M6" t="n">
-        <v>304072.3149699798</v>
+        <v>304072.3149699796</v>
       </c>
       <c r="N6" t="n">
         <v>389127.3429054916</v>
       </c>
       <c r="O6" t="n">
-        <v>389127.3429054916</v>
+        <v>389127.3429054915</v>
       </c>
       <c r="P6" t="n">
         <v>389127.3429054915</v>
@@ -26787,43 +26789,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.401455402293</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.401455402293</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,10 +27384,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>87.03229378982797</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27427,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>192.8272672155881</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>44.78982158236141</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>165.7855147156432</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>290.3129182374928</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,10 +27672,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>163.4340165961844</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27774,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>122.8089497215839</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,19 +27830,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>146.3697656619745</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27913,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>20.75133764329178</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>38.82058765106711</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28029,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>19.35155206907385</v>
       </c>
       <c r="U10" t="n">
-        <v>134.5062182165088</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29092,7 +29094,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29229,7 +29231,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>-2.230967569652997e-12</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31607,7 +31609,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
         <v>593.9283018233475</v>
@@ -31622,7 +31624,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K12" t="n">
-        <v>362.180468412921</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>370.9642309107728</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647484</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O15" t="n">
-        <v>349.7190218511039</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647484</v>
       </c>
       <c r="N18" t="n">
-        <v>659.9976957396707</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,13 +32542,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32555,34 +32557,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>402.2342772868833</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>671.2522281007818</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>336.3457189021232</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>615.0381444378773</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>353.2560498238277</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>476.064808938546</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>541.2980521010961</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>458.677017313216</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>465.7451325200292</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O36" t="n">
-        <v>361.7519118779087</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,13 +33763,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>469.5567819573411</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>193.964997009853</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>361.7519118779092</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34232,16 +34234,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N45" t="n">
-        <v>263.7590256391489</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35255,7 +35257,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
         <v>451.7942679013292</v>
@@ -35270,7 +35272,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>224.339029438562</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>228.3679864663283</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427302</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O15" t="n">
-        <v>207.1227774066595</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427302</v>
       </c>
       <c r="N18" t="n">
-        <v>528.6559836563374</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36205,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>263.6798975070091</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>528.6559836563374</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>205.0040068187898</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899036</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36676,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>472.904110515859</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>213.2742757378062</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>337.5104291586719</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>320.835578338857</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>334.4034204366959</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O36" t="n">
-        <v>219.1556674334643</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37406,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>327.4227480353227</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>59.99058959552271</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>219.1556674334648</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37880,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N45" t="n">
-        <v>132.4173135558156</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1447730.786337186</v>
+        <v>1443718.176323192</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283193</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>294.8980762824338</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>128.0737137084231</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -825,13 +825,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -867,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>144.9792037490805</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>80.00124118081825</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -898,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>87.56115536271761</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>227.7172236952946</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>139.8420725436384</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>13.02719212039631</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1135,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>94.8127598026153</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1189,7 +1189,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>347.4173510049865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1299,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1308,7 +1308,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>61.42978662487896</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>200.1973972070953</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187896</v>
+        <v>409.8033385187844</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>133.8410052537953</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000799</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576191</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>107.4021082756238</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000799</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>27.02919805176115</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>26.05480806223719</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2247,10 +2247,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>46.29306638367395</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,13 +2298,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>185.4048731212358</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>147.6895341487328</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>87.21471514852985</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>95.81917536083702</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>100.5858322992714</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>78.91051008678102</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>100.5858322992699</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3675,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>51.3656974031032</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>51.36569740310382</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>107.4021082756248</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>94.30373791808189</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2257.256030805452</v>
+        <v>1422.200456328342</v>
       </c>
       <c r="C2" t="n">
-        <v>1888.29351386504</v>
+        <v>1422.200456328342</v>
       </c>
       <c r="D2" t="n">
-        <v>1530.02781525829</v>
+        <v>1063.934757721591</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1063.934757721591</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>652.948852931984</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>237.8764027769805</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4354,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410102</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066532</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W2" t="n">
-        <v>2630.721789066532</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X2" t="n">
-        <v>2257.256030805452</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y2" t="n">
-        <v>2257.256030805452</v>
+        <v>1808.800296392464</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1930.093399075246</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C4" t="n">
-        <v>1761.15721614734</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D4" t="n">
-        <v>1611.040576735004</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E4" t="n">
-        <v>1611.040576735004</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F4" t="n">
-        <v>1611.040576735004</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G4" t="n">
-        <v>1611.040576735004</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>1464.823389952862</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952862</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>3179.162181458585</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>2957.395566028111</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U4" t="n">
-        <v>2668.292699153754</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V4" t="n">
-        <v>2668.292699153754</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="W4" t="n">
-        <v>2378.875529116794</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X4" t="n">
-        <v>2150.885978218776</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y4" t="n">
-        <v>1930.093399075246</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1292.833068744076</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1292.833068744076</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>934.5673701373257</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001391</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3126.869541658774</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2795.806654315204</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W5" t="n">
-        <v>2443.037999045089</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="X5" t="n">
-        <v>2069.572240784009</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="Y5" t="n">
-        <v>1679.432908808198</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>847.3980557622425</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C7" t="n">
-        <v>678.4618728343356</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>528.3452334219999</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>380.4321398396067</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1504.523587941899</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1249.839099736012</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="W7" t="n">
-        <v>1249.839099736012</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X7" t="n">
-        <v>1249.839099736012</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.046520592482</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.11348746897</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.150970528558</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4801,7 +4801,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912087</v>
@@ -4822,34 +4822,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176918</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906804</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>1952.040104645724</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y8" t="n">
-        <v>1601.11348746897</v>
+        <v>2071.975386180639</v>
       </c>
     </row>
     <row r="9">
@@ -4874,16 +4874,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>943.7005868594143</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C10" t="n">
-        <v>774.7644039315074</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D10" t="n">
-        <v>624.6477645191717</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>393.5909197591989</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>225.8880831339178</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.244497707541</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1346.141630833184</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1346.141630833184</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W10" t="n">
-        <v>1346.141630833184</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X10" t="n">
-        <v>1346.141630833184</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y10" t="n">
-        <v>1125.349051689654</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551878</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611467</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004716</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406472</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168643</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398597</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492582</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474787</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466577</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123006</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852892</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591812</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866616</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468476</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962607</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589159</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589159</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580262</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580262</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398597</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492582</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756267</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756267</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969296</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756267</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756267</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969296</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876702</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597633</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>261.8464821474275</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>261.8464821474275</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>261.8464821474275</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>261.8464821474275</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>120.1346509896256</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.34034846144</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179099</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5731,31 +5731,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5770,31 +5770,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1336.167399417937</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>449.485266605716</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>449.485266605716</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1501.108204237296</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W22" t="n">
-        <v>1501.108204237296</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,52 +5977,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.58852738579</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913445</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>3210.485548300424</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>3210.485548300424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>3482.038612289356</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6141,52 +6141,52 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487564</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510505</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
         <v>1056.188523744657</v>
@@ -6217,19 +6217,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,10 +6238,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1366.386875345992</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1918.296605585279</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2341.919755080347</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6457,46 +6457,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2149.810879820877</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2149.810879820877</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>636.6680198981028</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>467.7318369701959</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2100.27549966854</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1811.200273012738</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1556.515784806851</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1267.09861476989</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1039.109063871873</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>818.3164847283425</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6682,28 +6682,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,16 +6712,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>562.8579153358621</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2906.022356843753</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>2737.086173915846</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>2586.969534503511</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>2586.969534503511</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>2586.969534503511</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>2419.773435218391</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4589.231301591249</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>4369.62983661419</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>4080.554609958388</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>3825.870121752501</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>3536.452951715541</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>3308.463400817523</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>3087.670821673993</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6925,34 +6925,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>3210.485548300425</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>3807.864035926977</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>4102.283767206194</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327643</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048574</v>
+        <v>564.5188827892237</v>
       </c>
       <c r="D37" t="n">
-        <v>444.7013164925216</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>444.7013164925216</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>444.7013164925216</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>277.5052172074016</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.402603663004</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,37 +7186,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>983.3556038098237</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C40" t="n">
-        <v>814.4194208819168</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D40" t="n">
-        <v>664.3027814695811</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E40" t="n">
-        <v>516.389687887188</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F40" t="n">
-        <v>369.4997403892776</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.96308358026</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="U40" t="n">
-        <v>2157.887856924458</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V40" t="n">
-        <v>1903.203368718571</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W40" t="n">
-        <v>1613.786198681611</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X40" t="n">
-        <v>1385.796647783593</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y40" t="n">
-        <v>1165.004068640063</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3227.225672628157</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>3058.28948970025</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>2908.172850287915</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>2760.259756705521</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>2613.369809207611</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>2446.173709922491</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>4690.833152398593</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>4401.757925742791</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>4147.073437536905</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>3857.656267499944</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>3629.666716601927</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>3408.874137458397</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>802.9288273958734</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>633.9926444679666</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>483.8760050556308</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>335.9629114732377</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>189.0729639753273</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510508</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1722.776592304621</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1205.369871369643</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>984.5772922261132</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>45.99097492814198</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891642</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>32.89260457060008</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012163</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -23709,7 +23709,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891642</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23740,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>55.21102825632832</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24135,10 +24135,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>99.1279816392573</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>66.73277020259221</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>138.4949402405113</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>121.5862749664512</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>80.44045370237323</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>69.70496293143134</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>39.70888054695402</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>114.1584408891656</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>15.00954930701784</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>32.89260457059909</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>71.22040037418695</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>921458.6918815281</v>
+        <v>921458.6918815277</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>921458.6918815279</v>
+        <v>921458.691881528</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>921458.691881528</v>
+        <v>921458.6918815279</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>921458.6918815281</v>
+        <v>921458.6918815279</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>513151.1061651771</v>
+      </c>
+      <c r="C2" t="n">
         <v>513151.106165177</v>
-      </c>
-      <c r="C2" t="n">
-        <v>513151.1061651771</v>
       </c>
       <c r="D2" t="n">
         <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062541</v>
+        <v>504466.6248062534</v>
       </c>
       <c r="F2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="G2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="H2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="I2" t="n">
         <v>504466.6248062538</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="K2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="L2" t="n">
         <v>504466.6248062536</v>
-      </c>
-      <c r="J2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="K2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="L2" t="n">
-        <v>504466.6248062538</v>
       </c>
       <c r="M2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="N2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="O2" t="n">
         <v>504466.6248062538</v>
       </c>
-      <c r="O2" t="n">
-        <v>504466.6248062536</v>
-      </c>
       <c r="P2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062538</v>
       </c>
     </row>
     <row r="3">
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073559</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.22694927995326e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551199</v>
+        <v>85055.02793551169</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.074904503184371e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820632</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820628</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820628</v>
+        <v>93403.78684820635</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26478,13 +26478,13 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-1016931.366972015</v>
       </c>
       <c r="C6" t="n">
-        <v>311813.3787555776</v>
+        <v>311813.3787555774</v>
       </c>
       <c r="D6" t="n">
-        <v>311813.3787555774</v>
+        <v>311813.3787555773</v>
       </c>
       <c r="E6" t="n">
-        <v>63714.88109813603</v>
+        <v>63367.50184377954</v>
       </c>
       <c r="F6" t="n">
-        <v>389127.3429054916</v>
+        <v>388779.9636511345</v>
       </c>
       <c r="G6" t="n">
-        <v>389127.3429054916</v>
+        <v>388779.9636511344</v>
       </c>
       <c r="H6" t="n">
-        <v>389127.3429054922</v>
+        <v>388779.9636511344</v>
       </c>
       <c r="I6" t="n">
-        <v>389127.3429054915</v>
+        <v>388779.9636511346</v>
       </c>
       <c r="J6" t="n">
-        <v>171596.140508214</v>
+        <v>171248.7612538573</v>
       </c>
       <c r="K6" t="n">
-        <v>389127.3429054915</v>
+        <v>388779.9636511346</v>
       </c>
       <c r="L6" t="n">
-        <v>389127.3429054916</v>
+        <v>388779.9636511345</v>
       </c>
       <c r="M6" t="n">
-        <v>304072.3149699796</v>
+        <v>303724.9357156229</v>
       </c>
       <c r="N6" t="n">
-        <v>389127.3429054916</v>
+        <v>388779.9636511346</v>
       </c>
       <c r="O6" t="n">
-        <v>389127.3429054915</v>
+        <v>388779.9636511346</v>
       </c>
       <c r="P6" t="n">
-        <v>389127.3429054915</v>
+        <v>388779.9636511345</v>
       </c>
     </row>
   </sheetData>
@@ -26789,34 +26789,34 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022928</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.401455402293</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.401455402293</v>
-      </c>
       <c r="E4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="H4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27029,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>87.03229378982797</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>166.5340506788974</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27545,13 +27545,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27587,19 +27587,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>44.78982158236141</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>206.5217571557727</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27618,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>163.4340165961844</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>158.520714960759</v>
       </c>
     </row>
     <row r="6">
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>146.3697656619745</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>239.1104512034317</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,13 +27855,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>270.4601319683923</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>38.82058765106711</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>83.32522828944182</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>19.35155206907385</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29094,7 +29094,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29231,7 +29231,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>-2.230967569652997e-12</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135343</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>370.9642309107728</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214701</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485292</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135343</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>620.1193660647484</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437246</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214701</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485292</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>620.1193660647484</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437246</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214701</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485292</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>671.2522281007818</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>405.637736314577</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>353.2560498238277</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>541.2980521010961</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>458.677017313216</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,16 +33760,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>469.5567819573411</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396422</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674334</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>228.3679864663283</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071399</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010453</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066251</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396422</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>477.9853321427302</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238456</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992802</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071399</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010453</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066251</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>477.9853321427302</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992802</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071399</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>528.6559836563374</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>274.2960242312436</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899036</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>213.2742757378062</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>407.3236446867659</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>320.835578338857</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>327.4227480353227</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1443718.176323192</v>
+        <v>1445478.706625977</v>
       </c>
     </row>
     <row r="7">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>3.657500457872759</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>128.0737137084231</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>61.42978662487896</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>80.00124118081825</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>20.29515656310261</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>227.7172236952946</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1074,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>13.42874471570741</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>13.02719212039631</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>94.8127598026153</v>
+        <v>94.81275980261439</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1308,10 +1308,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>61.42978662487896</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>13.02719212039628</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187844</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>133.8410052537953</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1542,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>112.1382188876854</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>107.4021082756238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1849,10 +1849,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>27.02919805176115</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>112.6623392052983</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>46.29306638367395</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>87.21471514852985</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2775,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>80.90831282609496</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="30">
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>27.0291980517616</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>5.890337106877586</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673023</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>78.91051008678102</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>51.36569740310382</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>44.95889092250177</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>160.1763464053464</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179931</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>111.5512144998715</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1422.200456328342</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>1422.200456328342</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1063.934757721591</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1063.934757721591</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>652.948852931984</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>237.8764027769805</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2182.266054653544</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X2" t="n">
-        <v>1808.800296392464</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y2" t="n">
-        <v>1808.800296392464</v>
+        <v>2051.278283189674</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>994.2880032601528</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C4" t="n">
-        <v>825.3518203322459</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2351809199101</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>393.5909197591989</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>225.8880831339178</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4518,22 +4518,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W4" t="n">
-        <v>1624.71859813194</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X4" t="n">
-        <v>1396.729047233923</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y4" t="n">
-        <v>1175.936468090393</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="5">
@@ -4564,22 +4564,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4588,7 +4588,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W5" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="X5" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>2365.667596818513</v>
       </c>
     </row>
     <row r="6">
@@ -4637,13 +4637,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064538</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>994.2880032601528</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4752,25 +4752,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="V7" t="n">
-        <v>1914.135768168901</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="W7" t="n">
-        <v>1624.71859813194</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X7" t="n">
-        <v>1396.729047233923</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y7" t="n">
-        <v>1175.936468090393</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="C8" t="n">
         <v>1976.204921733553</v>
@@ -4801,10 +4801,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4813,43 +4813,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y8" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4956,10 +4956,10 @@
         <v>225.8880831339178</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>79.67089635177561</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -5017,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075805</v>
@@ -5050,43 +5050,43 @@
         <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>577.388077746847</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>980.1499206998684</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143764</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.3843576263199</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
         <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5229,22 +5229,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2083.791617318188</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304621</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267661</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369643</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.5772922261132</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5266,40 +5266,40 @@
         <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143764</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>814.4194208819168</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>664.3027814695811</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E16" t="n">
-        <v>516.389687887188</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>369.4997403892776</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>202.3036411041575</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797186</v>
@@ -5439,10 +5439,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5509,10 +5509,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5521,13 +5521,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5536,31 +5536,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="20">
@@ -5731,28 +5731,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075809</v>
@@ -5770,31 +5770,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>768.5380889459586</v>
+        <v>961.4446166151475</v>
       </c>
       <c r="C22" t="n">
-        <v>599.6019060180517</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D22" t="n">
-        <v>449.485266605716</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E22" t="n">
-        <v>449.485266605716</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854707</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W22" t="n">
-        <v>1398.968683817746</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X22" t="n">
-        <v>1170.979132919728</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="Y22" t="n">
-        <v>950.1865537761984</v>
+        <v>1143.093081445387</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6007,31 +6007,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6208,34 +6208,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6457,55 +6457,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,19 +6688,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075809</v>
@@ -6712,16 +6712,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
@@ -6934,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>733.4550657171305</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>564.5188827892237</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>915.1035305473703</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,37 +7186,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>931.4710609784063</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>762.5348780504994</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>612.4182386381636</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2395.078540748843</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2395.078540748843</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2395.078540748843</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7645,22 +7645,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>45.99097492814198</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856555</v>
@@ -23469,13 +23469,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>105.2672314396029</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23506,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>16.31315520054599</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>32.89260457060008</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23740,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>138.4949402405077</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>54.58448189332958</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>99.1279816392573</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,19 +24180,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>144.8013425629422</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="30">
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>138.4949402405072</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>211.5151132204107</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194188</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>69.70496293143134</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>15.00954930701784</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>134.8730892594355</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>57.22910392194191</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.22910392194173</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>921458.6918815277</v>
+        <v>921458.6918815279</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>921458.6918815281</v>
+        <v>921458.6918815279</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>921458.691881528</v>
+        <v>921458.6918815279</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>921458.691881528</v>
+        <v>921458.6918815279</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>921458.6918815279</v>
+        <v>921458.691881528</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>921458.691881528</v>
+        <v>921458.6918815278</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>921458.6918815279</v>
+        <v>921458.691881528</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>921458.6918815281</v>
+        <v>921458.6918815279</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>921458.6918815281</v>
+        <v>921458.691881528</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>921458.6918815279</v>
+        <v>921458.691881528</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>921458.6918815279</v>
+        <v>921458.6918815281</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
         <v>513151.106165177</v>
@@ -26322,37 +26322,37 @@
         <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062534</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="F2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="G2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="H2" t="n">
+        <v>504466.6248062535</v>
+      </c>
+      <c r="I2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="J2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="K2" t="n">
+        <v>504466.6248062535</v>
+      </c>
+      <c r="L2" t="n">
         <v>504466.6248062537</v>
       </c>
-      <c r="H2" t="n">
+      <c r="M2" t="n">
         <v>504466.6248062536</v>
-      </c>
-      <c r="I2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="J2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="K2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="L2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="M2" t="n">
-        <v>504466.6248062538</v>
       </c>
       <c r="N2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="O2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="P2" t="n">
         <v>504466.6248062538</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.22694927995326e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551169</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.074904503184371e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820635</v>
+        <v>93403.78684820638</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26530,40 +26530,40 @@
         <v>311813.3787555773</v>
       </c>
       <c r="E6" t="n">
-        <v>63367.50184377954</v>
+        <v>63680.14317270087</v>
       </c>
       <c r="F6" t="n">
-        <v>388779.9636511345</v>
+        <v>389092.6049800555</v>
       </c>
       <c r="G6" t="n">
-        <v>388779.9636511344</v>
+        <v>389092.6049800557</v>
       </c>
       <c r="H6" t="n">
-        <v>388779.9636511344</v>
+        <v>389092.6049800557</v>
       </c>
       <c r="I6" t="n">
-        <v>388779.9636511346</v>
+        <v>389092.6049800557</v>
       </c>
       <c r="J6" t="n">
-        <v>171248.7612538573</v>
+        <v>171561.4025827782</v>
       </c>
       <c r="K6" t="n">
-        <v>388779.9636511346</v>
+        <v>389092.6049800557</v>
       </c>
       <c r="L6" t="n">
-        <v>388779.9636511345</v>
+        <v>389092.6049800558</v>
       </c>
       <c r="M6" t="n">
-        <v>303724.9357156229</v>
+        <v>304037.5770445439</v>
       </c>
       <c r="N6" t="n">
-        <v>388779.9636511346</v>
+        <v>389092.6049800558</v>
       </c>
       <c r="O6" t="n">
-        <v>388779.9636511346</v>
+        <v>389092.6049800558</v>
       </c>
       <c r="P6" t="n">
-        <v>388779.9636511345</v>
+        <v>389092.6049800559</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26807,16 +26807,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26971,10 +26971,10 @@
         <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27029,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>379.0763412056078</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>166.5340506788974</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>83.32522828944182</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,7 +27590,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>206.5217571557727</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>362.4386851003779</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>158.520714960759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,19 +27824,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>206.1202045604618</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>239.1104512034317</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>270.4601319683923</v>
+        <v>270.4601319683932</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>83.32522828944182</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>83.32522828944181</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -31846,19 +31846,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>545.3845241768654</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565771</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,25 +32074,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565771</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35494,19 +35494,19 @@
         <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>406.8301443969912</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121327</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121327</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
